--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Plat-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Plat-Lrp1.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>7.830804666666666</v>
+        <v>9.028635</v>
       </c>
       <c r="H2">
-        <v>23.492414</v>
+        <v>27.085905</v>
       </c>
       <c r="I2">
-        <v>0.1730236402234635</v>
+        <v>0.2242501257220027</v>
       </c>
       <c r="J2">
-        <v>0.1730236402234635</v>
+        <v>0.2242501257220026</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N2">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O2">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P2">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q2">
-        <v>13.696476733038</v>
+        <v>82.81739363897999</v>
       </c>
       <c r="R2">
-        <v>123.268290597342</v>
+        <v>745.3565427508199</v>
       </c>
       <c r="S2">
-        <v>0.0006306233130018989</v>
+        <v>0.003242267415683445</v>
       </c>
       <c r="T2">
-        <v>0.000630623313001899</v>
+        <v>0.003242267415683444</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>7.830804666666666</v>
+        <v>9.028635</v>
       </c>
       <c r="H3">
-        <v>23.492414</v>
+        <v>27.085905</v>
       </c>
       <c r="I3">
-        <v>0.1730236402234635</v>
+        <v>0.2242501257220027</v>
       </c>
       <c r="J3">
-        <v>0.1730236402234635</v>
+        <v>0.2242501257220026</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P3">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q3">
-        <v>1120.083478541916</v>
+        <v>1291.4158030697</v>
       </c>
       <c r="R3">
-        <v>10080.75130687724</v>
+        <v>11622.7422276273</v>
       </c>
       <c r="S3">
-        <v>0.05157171204277433</v>
+        <v>0.05055840560069003</v>
       </c>
       <c r="T3">
-        <v>0.05157171204277434</v>
+        <v>0.05055840560069001</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.830804666666666</v>
+        <v>9.028635</v>
       </c>
       <c r="H4">
-        <v>23.492414</v>
+        <v>27.085905</v>
       </c>
       <c r="I4">
-        <v>0.1730236402234635</v>
+        <v>0.2242501257220027</v>
       </c>
       <c r="J4">
-        <v>0.1730236402234635</v>
+        <v>0.2242501257220026</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N4">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P4">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q4">
-        <v>1039.968541565389</v>
+        <v>1527.976480181305</v>
       </c>
       <c r="R4">
-        <v>9359.716874088504</v>
+        <v>13751.78832163174</v>
       </c>
       <c r="S4">
-        <v>0.04788300085362539</v>
+        <v>0.05981966029042909</v>
       </c>
       <c r="T4">
-        <v>0.04788300085362539</v>
+        <v>0.05981966029042908</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.830804666666666</v>
+        <v>9.028635</v>
       </c>
       <c r="H5">
-        <v>23.492414</v>
+        <v>27.085905</v>
       </c>
       <c r="I5">
-        <v>0.1730236402234635</v>
+        <v>0.2242501257220027</v>
       </c>
       <c r="J5">
-        <v>0.1730236402234635</v>
+        <v>0.2242501257220026</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N5">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P5">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q5">
-        <v>180.1297653577351</v>
+        <v>145.815305289115</v>
       </c>
       <c r="R5">
-        <v>1621.167888219616</v>
+        <v>1312.337747602035</v>
       </c>
       <c r="S5">
-        <v>0.008293667898266376</v>
+        <v>0.00570861013940808</v>
       </c>
       <c r="T5">
-        <v>0.008293667898266377</v>
+        <v>0.005708610139408078</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.830804666666666</v>
+        <v>9.028635</v>
       </c>
       <c r="H6">
-        <v>23.492414</v>
+        <v>27.085905</v>
       </c>
       <c r="I6">
-        <v>0.1730236402234635</v>
+        <v>0.2242501257220027</v>
       </c>
       <c r="J6">
-        <v>0.1730236402234635</v>
+        <v>0.2242501257220026</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N6">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P6">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q6">
-        <v>419.6252707055811</v>
+        <v>494.269399852305</v>
       </c>
       <c r="R6">
-        <v>3776.62743635023</v>
+        <v>4448.424598670745</v>
       </c>
       <c r="S6">
-        <v>0.01932069710988922</v>
+        <v>0.01935044679981646</v>
       </c>
       <c r="T6">
-        <v>0.01932069710988922</v>
+        <v>0.01935044679981645</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.830804666666666</v>
+        <v>9.028635</v>
       </c>
       <c r="H7">
-        <v>23.492414</v>
+        <v>27.085905</v>
       </c>
       <c r="I7">
-        <v>0.1730236402234635</v>
+        <v>0.2242501257220027</v>
       </c>
       <c r="J7">
-        <v>0.1730236402234635</v>
+        <v>0.2242501257220026</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N7">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P7">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q7">
-        <v>984.3884031007256</v>
+        <v>2185.737440906635</v>
       </c>
       <c r="R7">
-        <v>8859.49562790653</v>
+        <v>19671.63696815971</v>
       </c>
       <c r="S7">
-        <v>0.04532393900590624</v>
+        <v>0.0855707354759756</v>
       </c>
       <c r="T7">
-        <v>0.04532393900590624</v>
+        <v>0.08557073547597559</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>73.55325999999999</v>
       </c>
       <c r="I8">
-        <v>0.541726056568851</v>
+        <v>0.60896351080989</v>
       </c>
       <c r="J8">
-        <v>0.541726056568851</v>
+        <v>0.6089635108098899</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N8">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O8">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P8">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q8">
-        <v>42.88280098542</v>
+        <v>224.8951728528266</v>
       </c>
       <c r="R8">
-        <v>385.94520886878</v>
+        <v>2024.05655567544</v>
       </c>
       <c r="S8">
-        <v>0.001974441643301963</v>
+        <v>0.0088045549231341</v>
       </c>
       <c r="T8">
-        <v>0.001974441643301964</v>
+        <v>0.008804554923134098</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>73.55325999999999</v>
       </c>
       <c r="I9">
-        <v>0.541726056568851</v>
+        <v>0.60896351080989</v>
       </c>
       <c r="J9">
-        <v>0.541726056568851</v>
+        <v>0.6089635108098899</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P9">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q9">
         <v>3506.910414523511</v>
@@ -1013,10 +1013,10 @@
         <v>31562.1937307116</v>
       </c>
       <c r="S9">
-        <v>0.1614677633608582</v>
+        <v>0.1372941222504107</v>
       </c>
       <c r="T9">
-        <v>0.1614677633608582</v>
+        <v>0.1372941222504107</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>73.55325999999999</v>
       </c>
       <c r="I10">
-        <v>0.541726056568851</v>
+        <v>0.60896351080989</v>
       </c>
       <c r="J10">
-        <v>0.541726056568851</v>
+        <v>0.6089635108098899</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N10">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P10">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q10">
-        <v>3256.075622095706</v>
+        <v>4149.303902552282</v>
       </c>
       <c r="R10">
-        <v>29304.68059886136</v>
+        <v>37343.73512297054</v>
       </c>
       <c r="S10">
-        <v>0.1499186423058495</v>
+        <v>0.1624435671044998</v>
       </c>
       <c r="T10">
-        <v>0.1499186423058495</v>
+        <v>0.1624435671044998</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>73.55325999999999</v>
       </c>
       <c r="I11">
-        <v>0.541726056568851</v>
+        <v>0.60896351080989</v>
       </c>
       <c r="J11">
-        <v>0.541726056568851</v>
+        <v>0.6089635108098899</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N11">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P11">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q11">
-        <v>563.9748841943822</v>
+        <v>395.9694557708022</v>
       </c>
       <c r="R11">
-        <v>5075.773957749439</v>
+        <v>3563.72510193722</v>
       </c>
       <c r="S11">
-        <v>0.02596694878929174</v>
+        <v>0.0155020438055335</v>
       </c>
       <c r="T11">
-        <v>0.02596694878929174</v>
+        <v>0.01550204380553349</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>73.55325999999999</v>
       </c>
       <c r="I12">
-        <v>0.541726056568851</v>
+        <v>0.60896351080989</v>
       </c>
       <c r="J12">
-        <v>0.541726056568851</v>
+        <v>0.6089635108098899</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N12">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P12">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q12">
-        <v>1313.820139504522</v>
+        <v>1342.215653395393</v>
       </c>
       <c r="R12">
-        <v>11824.3812555407</v>
+        <v>12079.94088055854</v>
       </c>
       <c r="S12">
-        <v>0.06049187869347656</v>
+        <v>0.05254719916440186</v>
       </c>
       <c r="T12">
-        <v>0.06049187869347657</v>
+        <v>0.05254719916440184</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>73.55325999999999</v>
       </c>
       <c r="I13">
-        <v>0.541726056568851</v>
+        <v>0.60896351080989</v>
       </c>
       <c r="J13">
-        <v>0.541726056568851</v>
+        <v>0.6089635108098899</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N13">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P13">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q13">
-        <v>3082.057729539947</v>
+        <v>5935.489852849309</v>
       </c>
       <c r="R13">
-        <v>27738.51956585952</v>
+        <v>53419.40867564378</v>
       </c>
       <c r="S13">
-        <v>0.141906381776073</v>
+        <v>0.2323720235619101</v>
       </c>
       <c r="T13">
-        <v>0.141906381776073</v>
+        <v>0.23237202356191</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.2013913333333333</v>
+        <v>0.1769686666666667</v>
       </c>
       <c r="H14">
-        <v>0.604174</v>
+        <v>0.530906</v>
       </c>
       <c r="I14">
-        <v>0.004449793231481909</v>
+        <v>0.004395486776113465</v>
       </c>
       <c r="J14">
-        <v>0.004449793231481908</v>
+        <v>0.004395486776113464</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N14">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O14">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P14">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q14">
-        <v>0.352243712958</v>
+        <v>1.623288983229333</v>
       </c>
       <c r="R14">
-        <v>3.170193416622</v>
+        <v>14.609600849064</v>
       </c>
       <c r="S14">
-        <v>1.621826558605724E-05</v>
+        <v>6.355110617831804E-05</v>
       </c>
       <c r="T14">
-        <v>1.621826558605724E-05</v>
+        <v>6.355110617831801E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.2013913333333333</v>
+        <v>0.1769686666666667</v>
       </c>
       <c r="H15">
-        <v>0.604174</v>
+        <v>0.530906</v>
       </c>
       <c r="I15">
-        <v>0.004449793231481909</v>
+        <v>0.004395486776113465</v>
       </c>
       <c r="J15">
-        <v>0.004449793231481908</v>
+        <v>0.004395486776113464</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P15">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q15">
-        <v>28.80612079987112</v>
+        <v>25.31281115932889</v>
       </c>
       <c r="R15">
-        <v>259.25508719884</v>
+        <v>227.81530043396</v>
       </c>
       <c r="S15">
-        <v>0.001326312721703744</v>
+        <v>0.000990986303903818</v>
       </c>
       <c r="T15">
-        <v>0.001326312721703744</v>
+        <v>0.0009909863039038178</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.2013913333333333</v>
+        <v>0.1769686666666667</v>
       </c>
       <c r="H16">
-        <v>0.604174</v>
+        <v>0.530906</v>
       </c>
       <c r="I16">
-        <v>0.004449793231481909</v>
+        <v>0.004395486776113465</v>
       </c>
       <c r="J16">
-        <v>0.004449793231481908</v>
+        <v>0.004395486776113464</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N16">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P16">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q16">
-        <v>26.74573816176267</v>
+        <v>29.94959486076378</v>
       </c>
       <c r="R16">
-        <v>240.711643455864</v>
+        <v>269.546353746874</v>
       </c>
       <c r="S16">
-        <v>0.0012314470602186</v>
+        <v>0.001172514507680307</v>
       </c>
       <c r="T16">
-        <v>0.001231447060218599</v>
+        <v>0.001172514507680306</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.2013913333333333</v>
+        <v>0.1769686666666667</v>
       </c>
       <c r="H17">
-        <v>0.604174</v>
+        <v>0.530906</v>
       </c>
       <c r="I17">
-        <v>0.004449793231481909</v>
+        <v>0.004395486776113465</v>
       </c>
       <c r="J17">
-        <v>0.004449793231481908</v>
+        <v>0.004395486776113464</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N17">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P17">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q17">
-        <v>4.632547377006222</v>
+        <v>2.858099829775778</v>
       </c>
       <c r="R17">
-        <v>41.692926393056</v>
+        <v>25.722898467982</v>
       </c>
       <c r="S17">
-        <v>0.0002132951730191367</v>
+        <v>0.0001118934506590268</v>
       </c>
       <c r="T17">
-        <v>0.0002132951730191367</v>
+        <v>0.0001118934506590267</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.2013913333333333</v>
+        <v>0.1769686666666667</v>
       </c>
       <c r="H18">
-        <v>0.604174</v>
+        <v>0.530906</v>
       </c>
       <c r="I18">
-        <v>0.004449793231481909</v>
+        <v>0.004395486776113465</v>
       </c>
       <c r="J18">
-        <v>0.004449793231481908</v>
+        <v>0.004395486776113464</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N18">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P18">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q18">
-        <v>10.79185299149222</v>
+        <v>9.688086478852668</v>
       </c>
       <c r="R18">
-        <v>97.12667692343</v>
+        <v>87.19277830967401</v>
       </c>
       <c r="S18">
-        <v>0.0004968864781486574</v>
+        <v>0.0003792846614762681</v>
       </c>
       <c r="T18">
-        <v>0.0004968864781486573</v>
+        <v>0.000379284661476268</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.2013913333333333</v>
+        <v>0.1769686666666667</v>
       </c>
       <c r="H19">
-        <v>0.604174</v>
+        <v>0.530906</v>
       </c>
       <c r="I19">
-        <v>0.004449793231481909</v>
+        <v>0.004395486776113465</v>
       </c>
       <c r="J19">
-        <v>0.004449793231481908</v>
+        <v>0.004395486776113464</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N19">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P19">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q19">
-        <v>25.31633739533867</v>
+        <v>42.84225030701311</v>
       </c>
       <c r="R19">
-        <v>227.847036558048</v>
+        <v>385.580252763118</v>
       </c>
       <c r="S19">
-        <v>0.001165633532805714</v>
+        <v>0.001677256746215728</v>
       </c>
       <c r="T19">
-        <v>0.001165633532805713</v>
+        <v>0.001677256746215727</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>12.620117</v>
+        <v>6.441099333333334</v>
       </c>
       <c r="H20">
-        <v>37.860351</v>
+        <v>19.323298</v>
       </c>
       <c r="I20">
-        <v>0.2788447262234544</v>
+        <v>0.1599818062517654</v>
       </c>
       <c r="J20">
-        <v>0.2788447262234544</v>
+        <v>0.1599818062517654</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N20">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O20">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P20">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q20">
-        <v>22.073228258967</v>
+        <v>59.08258102763467</v>
       </c>
       <c r="R20">
-        <v>198.659054330703</v>
+        <v>531.7432292487121</v>
       </c>
       <c r="S20">
-        <v>0.001016311903026856</v>
+        <v>0.002313059115763017</v>
       </c>
       <c r="T20">
-        <v>0.001016311903026856</v>
+        <v>0.002313059115763017</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>12.620117</v>
+        <v>6.441099333333334</v>
       </c>
       <c r="H21">
-        <v>37.860351</v>
+        <v>19.323298</v>
       </c>
       <c r="I21">
-        <v>0.2788447262234544</v>
+        <v>0.1599818062517654</v>
       </c>
       <c r="J21">
-        <v>0.2788447262234544</v>
+        <v>0.1599818062517654</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P21">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q21">
-        <v>1805.125418226407</v>
+        <v>921.3062072182979</v>
       </c>
       <c r="R21">
-        <v>16246.12876403766</v>
+        <v>8291.755864964682</v>
       </c>
       <c r="S21">
-        <v>0.08311291975402627</v>
+        <v>0.0360687648364344</v>
       </c>
       <c r="T21">
-        <v>0.08311291975402628</v>
+        <v>0.03606876483643439</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>12.620117</v>
+        <v>6.441099333333334</v>
       </c>
       <c r="H22">
-        <v>37.860351</v>
+        <v>19.323298</v>
       </c>
       <c r="I22">
-        <v>0.2788447262234544</v>
+        <v>0.1599818062517654</v>
       </c>
       <c r="J22">
-        <v>0.2788447262234544</v>
+        <v>0.1599818062517654</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N22">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P22">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q22">
-        <v>1676.012265603004</v>
+        <v>1090.070457809494</v>
       </c>
       <c r="R22">
-        <v>15084.11039042704</v>
+        <v>9810.634120285444</v>
       </c>
       <c r="S22">
-        <v>0.07716819647617129</v>
+        <v>0.04267581688892167</v>
       </c>
       <c r="T22">
-        <v>0.07716819647617129</v>
+        <v>0.04267581688892167</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>12.620117</v>
+        <v>6.441099333333334</v>
       </c>
       <c r="H23">
-        <v>37.860351</v>
+        <v>19.323298</v>
       </c>
       <c r="I23">
-        <v>0.2788447262234544</v>
+        <v>0.1599818062517654</v>
       </c>
       <c r="J23">
-        <v>0.2788447262234544</v>
+        <v>0.1599818062517654</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N23">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P23">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q23">
-        <v>290.2969504109493</v>
+        <v>104.0257874736896</v>
       </c>
       <c r="R23">
-        <v>2612.672553698544</v>
+        <v>936.232087263206</v>
       </c>
       <c r="S23">
-        <v>0.01336606692295638</v>
+        <v>0.004072567443827477</v>
       </c>
       <c r="T23">
-        <v>0.01336606692295638</v>
+        <v>0.004072567443827477</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>12.620117</v>
+        <v>6.441099333333334</v>
       </c>
       <c r="H24">
-        <v>37.860351</v>
+        <v>19.323298</v>
       </c>
       <c r="I24">
-        <v>0.2788447262234544</v>
+        <v>0.1599818062517654</v>
       </c>
       <c r="J24">
-        <v>0.2788447262234544</v>
+        <v>0.1599818062517654</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N24">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P24">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q24">
-        <v>676.2676682516883</v>
+        <v>352.6156835308714</v>
       </c>
       <c r="R24">
-        <v>6086.409014265195</v>
+        <v>3173.541151777843</v>
       </c>
       <c r="S24">
-        <v>0.03113721621562993</v>
+        <v>0.0138047611828366</v>
       </c>
       <c r="T24">
-        <v>0.03113721621562993</v>
+        <v>0.0138047611828366</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>12.620117</v>
+        <v>6.441099333333334</v>
       </c>
       <c r="H25">
-        <v>37.860351</v>
+        <v>19.323298</v>
       </c>
       <c r="I25">
-        <v>0.2788447262234544</v>
+        <v>0.1599818062517654</v>
       </c>
       <c r="J25">
-        <v>0.2788447262234544</v>
+        <v>0.1599818062517654</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N25">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P25">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q25">
-        <v>1586.439369820528</v>
+        <v>1559.322308794788</v>
       </c>
       <c r="R25">
-        <v>14277.95432838475</v>
+        <v>14033.90077915309</v>
       </c>
       <c r="S25">
-        <v>0.0730440149516436</v>
+        <v>0.06104683678398224</v>
       </c>
       <c r="T25">
-        <v>0.0730440149516436</v>
+        <v>0.06104683678398224</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.019859</v>
+        <v>0.011936</v>
       </c>
       <c r="H26">
-        <v>0.059577</v>
+        <v>0.035808</v>
       </c>
       <c r="I26">
-        <v>0.000438789705204126</v>
+        <v>0.0002964622559908363</v>
       </c>
       <c r="J26">
-        <v>0.000438789705204126</v>
+        <v>0.0002964622559908363</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N26">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O26">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P26">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q26">
-        <v>0.034734403809</v>
+        <v>0.109485920128</v>
       </c>
       <c r="R26">
-        <v>0.312609634281</v>
+        <v>0.985373281152</v>
       </c>
       <c r="S26">
-        <v>1.599267113150404E-06</v>
+        <v>4.286329425610583E-06</v>
       </c>
       <c r="T26">
-        <v>1.599267113150404E-06</v>
+        <v>4.286329425610581E-06</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.019859</v>
+        <v>0.011936</v>
       </c>
       <c r="H27">
-        <v>0.059577</v>
+        <v>0.035808</v>
       </c>
       <c r="I27">
-        <v>0.000438789705204126</v>
+        <v>0.0002964622559908363</v>
       </c>
       <c r="J27">
-        <v>0.000438789705204126</v>
+        <v>0.0002964622559908363</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P27">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q27">
-        <v>2.840543053646667</v>
+        <v>1.707272364586667</v>
       </c>
       <c r="R27">
-        <v>25.56488748282</v>
+        <v>15.36545128128</v>
       </c>
       <c r="S27">
-        <v>0.0001307863844206205</v>
+        <v>6.683902154089033E-05</v>
       </c>
       <c r="T27">
-        <v>0.0001307863844206205</v>
+        <v>6.68390215408903E-05</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.019859</v>
+        <v>0.011936</v>
       </c>
       <c r="H28">
-        <v>0.059577</v>
+        <v>0.035808</v>
       </c>
       <c r="I28">
-        <v>0.000438789705204126</v>
+        <v>0.0002964622559908363</v>
       </c>
       <c r="J28">
-        <v>0.000438789705204126</v>
+        <v>0.0002964622559908363</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N28">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P28">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q28">
-        <v>2.637370761508</v>
+        <v>2.020009366581334</v>
       </c>
       <c r="R28">
-        <v>23.736336853572</v>
+        <v>18.180084299232</v>
       </c>
       <c r="S28">
-        <v>0.0001214317754597905</v>
+        <v>7.908254849449133E-05</v>
       </c>
       <c r="T28">
-        <v>0.0001214317754597905</v>
+        <v>7.908254849449132E-05</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.019859</v>
+        <v>0.011936</v>
       </c>
       <c r="H29">
-        <v>0.059577</v>
+        <v>0.035808</v>
       </c>
       <c r="I29">
-        <v>0.000438789705204126</v>
+        <v>0.0002964622559908363</v>
       </c>
       <c r="J29">
-        <v>0.000438789705204126</v>
+        <v>0.0002964622559908363</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N29">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P29">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q29">
-        <v>0.4568109105653333</v>
+        <v>0.1927701677973334</v>
       </c>
       <c r="R29">
-        <v>4.111298195088</v>
+        <v>1.734931510176</v>
       </c>
       <c r="S29">
-        <v>2.103282584646328E-05</v>
+        <v>7.546873987482588E-06</v>
       </c>
       <c r="T29">
-        <v>2.103282584646329E-05</v>
+        <v>7.546873987482585E-06</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.019859</v>
+        <v>0.011936</v>
       </c>
       <c r="H30">
-        <v>0.059577</v>
+        <v>0.035808</v>
       </c>
       <c r="I30">
-        <v>0.000438789705204126</v>
+        <v>0.0002964622559908363</v>
       </c>
       <c r="J30">
-        <v>0.000438789705204126</v>
+        <v>0.0002964622559908363</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N30">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P30">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q30">
-        <v>1.064173939418333</v>
+        <v>0.653432058848</v>
       </c>
       <c r="R30">
-        <v>9.577565454764999</v>
+        <v>5.880888529632</v>
       </c>
       <c r="S30">
-        <v>4.899748368626017E-05</v>
+        <v>2.558160043047584E-05</v>
       </c>
       <c r="T30">
-        <v>4.899748368626018E-05</v>
+        <v>2.558160043047584E-05</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.019859</v>
+        <v>0.011936</v>
       </c>
       <c r="H31">
-        <v>0.059577</v>
+        <v>0.035808</v>
       </c>
       <c r="I31">
-        <v>0.000438789705204126</v>
+        <v>0.0002964622559908363</v>
       </c>
       <c r="J31">
-        <v>0.000438789705204126</v>
+        <v>0.0002964622559908363</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N31">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P31">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q31">
-        <v>2.496418967056</v>
+        <v>2.889579886069333</v>
       </c>
       <c r="R31">
-        <v>22.467770703504</v>
+        <v>26.006218974624</v>
       </c>
       <c r="S31">
-        <v>0.0001149419686778411</v>
+        <v>0.0001131258821118857</v>
       </c>
       <c r="T31">
-        <v>0.0001149419686778411</v>
+        <v>0.0001131258821118857</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G32">
-        <v>0.06865700000000001</v>
+        <v>0.08505666666666667</v>
       </c>
       <c r="H32">
-        <v>0.205971</v>
+        <v>0.25517</v>
       </c>
       <c r="I32">
-        <v>0.001516994047545178</v>
+        <v>0.002112608184237648</v>
       </c>
       <c r="J32">
-        <v>0.001516994047545178</v>
+        <v>0.002112608184237648</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.749051</v>
+        <v>9.172748</v>
       </c>
       <c r="N32">
-        <v>5.247153</v>
+        <v>27.518244</v>
       </c>
       <c r="O32">
-        <v>0.003644723415756577</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="P32">
-        <v>0.003644723415756578</v>
+        <v>0.01445826353606064</v>
       </c>
       <c r="Q32">
-        <v>0.120084594507</v>
+        <v>0.7802033690533334</v>
       </c>
       <c r="R32">
-        <v>1.080761350563</v>
+        <v>7.02183032148</v>
       </c>
       <c r="S32">
-        <v>5.529023726651256E-06</v>
+        <v>3.054464587614646E-05</v>
       </c>
       <c r="T32">
-        <v>5.529023726651256E-06</v>
+        <v>3.054464587614645E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G33">
-        <v>0.06865700000000001</v>
+        <v>0.08505666666666667</v>
       </c>
       <c r="H33">
-        <v>0.205971</v>
+        <v>0.25517</v>
       </c>
       <c r="I33">
-        <v>0.001516994047545178</v>
+        <v>0.002112608184237648</v>
       </c>
       <c r="J33">
-        <v>0.001516994047545178</v>
+        <v>0.002112608184237648</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.2980616520156924</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="P33">
-        <v>0.2980616520156925</v>
+        <v>0.2254554169720557</v>
       </c>
       <c r="Q33">
-        <v>9.820391985206669</v>
+        <v>12.16612738135556</v>
       </c>
       <c r="R33">
-        <v>88.38352786686001</v>
+        <v>109.4951464322</v>
       </c>
       <c r="S33">
-        <v>0.0004521577519092876</v>
+        <v>0.0004762989590758764</v>
       </c>
       <c r="T33">
-        <v>0.0004521577519092876</v>
+        <v>0.0004762989590758763</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G34">
-        <v>0.06865700000000001</v>
+        <v>0.08505666666666667</v>
       </c>
       <c r="H34">
-        <v>0.205971</v>
+        <v>0.25517</v>
       </c>
       <c r="I34">
-        <v>0.001516994047545178</v>
+        <v>0.002112608184237648</v>
       </c>
       <c r="J34">
-        <v>0.001516994047545178</v>
+        <v>0.002112608184237648</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>132.804812</v>
+        <v>169.2367096666667</v>
       </c>
       <c r="N34">
-        <v>398.414436</v>
+        <v>507.7101290000001</v>
       </c>
       <c r="O34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="P34">
-        <v>0.2767425352500014</v>
+        <v>0.2667541884216647</v>
       </c>
       <c r="Q34">
-        <v>9.117979977484001</v>
+        <v>14.39471040188111</v>
       </c>
       <c r="R34">
-        <v>82.06181979735601</v>
+        <v>129.55239361693</v>
       </c>
       <c r="S34">
-        <v>0.0004198167786768136</v>
+        <v>0.0005635470816392804</v>
       </c>
       <c r="T34">
-        <v>0.0004198167786768136</v>
+        <v>0.0005635470816392804</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G35">
-        <v>0.06865700000000001</v>
+        <v>0.08505666666666667</v>
       </c>
       <c r="H35">
-        <v>0.205971</v>
+        <v>0.25517</v>
       </c>
       <c r="I35">
-        <v>0.001516994047545178</v>
+        <v>0.002112608184237648</v>
       </c>
       <c r="J35">
-        <v>0.001516994047545178</v>
+        <v>0.002112608184237648</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>23.00271466666667</v>
+        <v>16.15031566666667</v>
       </c>
       <c r="N35">
-        <v>69.008144</v>
+        <v>48.450947</v>
       </c>
       <c r="O35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943506</v>
       </c>
       <c r="P35">
-        <v>0.04793372678759353</v>
+        <v>0.02545644119943505</v>
       </c>
       <c r="Q35">
-        <v>1.579297380869334</v>
+        <v>1.373692016221111</v>
       </c>
       <c r="R35">
-        <v>14.213676427824</v>
+        <v>12.36322814599</v>
       </c>
       <c r="S35">
-        <v>7.271517821343622E-05</v>
+        <v>5.377948601949094E-05</v>
       </c>
       <c r="T35">
-        <v>7.271517821343622E-05</v>
+        <v>5.377948601949094E-05</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G36">
-        <v>0.06865700000000001</v>
+        <v>0.08505666666666667</v>
       </c>
       <c r="H36">
-        <v>0.205971</v>
+        <v>0.25517</v>
       </c>
       <c r="I36">
-        <v>0.001516994047545178</v>
+        <v>0.002112608184237648</v>
       </c>
       <c r="J36">
-        <v>0.001516994047545178</v>
+        <v>0.002112608184237648</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>53.58648166666666</v>
+        <v>54.744643</v>
       </c>
       <c r="N36">
-        <v>160.759445</v>
+        <v>164.233929</v>
       </c>
       <c r="O36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="P36">
-        <v>0.111665071229204</v>
+        <v>0.08628956945961638</v>
       </c>
       <c r="Q36">
-        <v>3.679087071788333</v>
+        <v>4.656396851436667</v>
       </c>
       <c r="R36">
-        <v>33.111783646095</v>
+        <v>41.90757166293</v>
       </c>
       <c r="S36">
-        <v>0.0001693952483734108</v>
+        <v>0.0001822960506547286</v>
       </c>
       <c r="T36">
-        <v>0.0001693952483734108</v>
+        <v>0.0001822960506547286</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G37">
-        <v>0.06865700000000001</v>
+        <v>0.08505666666666667</v>
       </c>
       <c r="H37">
-        <v>0.205971</v>
+        <v>0.25517</v>
       </c>
       <c r="I37">
-        <v>0.001516994047545178</v>
+        <v>0.002112608184237648</v>
       </c>
       <c r="J37">
-        <v>0.001516994047545178</v>
+        <v>0.002112608184237648</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>125.707184</v>
+        <v>242.0894676666667</v>
       </c>
       <c r="N37">
-        <v>377.1215520000001</v>
+        <v>726.268403</v>
       </c>
       <c r="O37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="P37">
-        <v>0.261952291301752</v>
+        <v>0.3815861204111676</v>
       </c>
       <c r="Q37">
-        <v>8.630678131888002</v>
+        <v>20.59132315483444</v>
       </c>
       <c r="R37">
-        <v>77.67610318699202</v>
+        <v>185.32190839351</v>
       </c>
       <c r="S37">
-        <v>0.0003973800666455783</v>
+        <v>0.0008061419609721254</v>
       </c>
       <c r="T37">
-        <v>0.0003973800666455782</v>
+        <v>0.0008061419609721254</v>
       </c>
     </row>
   </sheetData>
